--- a/FitnessData/static5/pso/analysis.xlsx
+++ b/FitnessData/static5/pso/analysis.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>210.44</v>
+        <v>184.6</v>
       </c>
       <c r="B2" t="n">
-        <v>209.06</v>
+        <v>195.39</v>
       </c>
       <c r="C2" t="n">
-        <v>221.28</v>
+        <v>185.48</v>
       </c>
       <c r="D2" t="n">
-        <v>211.29</v>
+        <v>193.94</v>
       </c>
       <c r="E2" t="n">
-        <v>216.71</v>
+        <v>201.63</v>
       </c>
       <c r="F2" t="n">
-        <v>213.05</v>
+        <v>182.12</v>
       </c>
       <c r="G2" t="n">
-        <v>209.24</v>
+        <v>214.19</v>
       </c>
       <c r="H2" t="n">
-        <v>209.74</v>
+        <v>206.88</v>
       </c>
       <c r="I2" t="n">
-        <v>218.14</v>
+        <v>210.8</v>
       </c>
       <c r="J2" t="n">
-        <v>205</v>
+        <v>184.76</v>
       </c>
       <c r="K2" t="n">
-        <v>199.13</v>
+        <v>188.71</v>
       </c>
       <c r="L2" t="n">
-        <v>219.31</v>
+        <v>183.64</v>
       </c>
       <c r="M2" t="n">
-        <v>216.76</v>
+        <v>192.39</v>
       </c>
       <c r="N2" t="n">
-        <v>206.02</v>
+        <v>195.42</v>
       </c>
       <c r="O2" t="n">
-        <v>192.43</v>
+        <v>204.6</v>
       </c>
       <c r="P2" t="n">
-        <v>206.25</v>
+        <v>202.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>205.21</v>
+        <v>205.9</v>
       </c>
       <c r="R2" t="n">
-        <v>206.92</v>
+        <v>198.04</v>
       </c>
       <c r="S2" t="n">
-        <v>194.91</v>
+        <v>218.39</v>
       </c>
       <c r="T2" t="n">
-        <v>205.74</v>
+        <v>206.78</v>
       </c>
       <c r="U2" t="n">
-        <v>192.43</v>
+        <v>182.12</v>
       </c>
       <c r="V2" t="n">
-        <v>208.8314999999999</v>
+        <v>197.802</v>
       </c>
       <c r="W2" t="n">
-        <v>7.665122153728467</v>
+        <v>10.88920305430543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>448.16</v>
+        <v>443.82</v>
       </c>
       <c r="B3" t="n">
-        <v>497.08</v>
+        <v>431.82</v>
       </c>
       <c r="C3" t="n">
-        <v>426.78</v>
+        <v>427.62</v>
       </c>
       <c r="D3" t="n">
-        <v>483.04</v>
+        <v>433.22</v>
       </c>
       <c r="E3" t="n">
-        <v>476.98</v>
+        <v>443.78</v>
       </c>
       <c r="F3" t="n">
-        <v>472.2</v>
+        <v>403.62</v>
       </c>
       <c r="G3" t="n">
-        <v>431.4</v>
+        <v>458.72</v>
       </c>
       <c r="H3" t="n">
-        <v>481.82</v>
+        <v>465.56</v>
       </c>
       <c r="I3" t="n">
-        <v>446.86</v>
+        <v>464.6</v>
       </c>
       <c r="J3" t="n">
-        <v>479</v>
+        <v>418.08</v>
       </c>
       <c r="K3" t="n">
-        <v>445.52</v>
+        <v>448.76</v>
       </c>
       <c r="L3" t="n">
-        <v>458.9</v>
+        <v>418.72</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4</v>
+        <v>403.62</v>
       </c>
       <c r="N3" t="n">
-        <v>457.44</v>
+        <v>428.6</v>
       </c>
       <c r="O3" t="n">
-        <v>493.04</v>
+        <v>445.02</v>
       </c>
       <c r="P3" t="n">
-        <v>478.14</v>
+        <v>448.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>478.14</v>
+        <v>422.68</v>
       </c>
       <c r="R3" t="n">
-        <v>457.88</v>
+        <v>436.66</v>
       </c>
       <c r="S3" t="n">
-        <v>444.4</v>
+        <v>453.92</v>
       </c>
       <c r="T3" t="n">
-        <v>441.06</v>
+        <v>435.2</v>
       </c>
       <c r="U3" t="n">
-        <v>426.78</v>
+        <v>403.62</v>
       </c>
       <c r="V3" t="n">
-        <v>463.8119999999999</v>
+        <v>436.6080000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>20.56583820447472</v>
+        <v>17.88892677196236</v>
       </c>
     </row>
   </sheetData>
